--- a/data/trans_dic/P24_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P24_4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con mareos con bastante o mucha frecuencia</t>
+          <t>Población con mareos con bastante o mucha frecuencia (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>5,04%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,01%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>6,7%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,99%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>13,43%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>15,16%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>3,11%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>2,76%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>4,26%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>3,46%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>9,23%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>10,43%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,69</t>
+          <t>0,0; 4,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,33</t>
+          <t>0,0; 3,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,59</t>
+          <t>0,0; 4,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,6</t>
+          <t>0,68; 8,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 15,11</t>
+          <t>0,79; 8,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,97</t>
+          <t>1,76; 15,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 10,0</t>
+          <t>2,78; 12,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 12,16</t>
+          <t>2,28; 8,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 8,0</t>
+          <t>2,43; 10,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,81; 22,58</t>
+          <t>3,94; 11,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,56</t>
+          <t>1,87; 8,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,16</t>
+          <t>5,9; 15,46</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,98</t>
+          <t>7,32; 21,79</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,16</t>
+          <t>9,6; 23,1</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>5,44; 14,42</t>
+          <t>1,66; 5,22</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 5,92</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 6,35</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 6,25</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>3,94; 10,37</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 14,92</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>6,75; 15,31</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>2,56%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,01%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>9,53%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>13,91%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>2,16%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>3,13%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>7,25%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>5,51%</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>5,51%</t>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>7,91%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,64</t>
+          <t>0,43; 3,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,19</t>
+          <t>0,0; 3,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 8,75</t>
+          <t>2,39; 8,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,07</t>
+          <t>0,85; 5,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,09</t>
+          <t>1,43; 9,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 6,46</t>
+          <t>0,83; 7,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,48</t>
+          <t>0,0; 7,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,56; 14,26</t>
+          <t>1,21; 6,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 13,96</t>
+          <t>2,77; 10,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,17; 14,74</t>
+          <t>6,63; 15,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,02</t>
+          <t>5,77; 14,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,49</t>
+          <t>10,09; 21,72</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 10,04</t>
+          <t>4,59; 14,02</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 8,02</t>
+          <t>8,44; 19,31</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,61</t>
+          <t>0,95; 4,04</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 5,45</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5,17; 10,35</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>3,78; 8,25</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>6,09; 13,28</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>3,23; 9,23</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 11,51</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>4,95%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>7,52%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,94%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,42%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11,48%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>9,91%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>16,82%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>5,57%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>2,8%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>3,92%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>5,03%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>3,99%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>9,03%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
         <is>
           <t>7,29%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>10,96%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,47</t>
+          <t>1,82; 6,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,98</t>
+          <t>0,0; 3,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,41</t>
+          <t>0,94; 4,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,1</t>
+          <t>1,38; 4,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 9,11</t>
+          <t>3,74; 10,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 11,04</t>
+          <t>2,44; 9,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,46</t>
+          <t>2,86; 9,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 8,09</t>
+          <t>4,98; 11,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 10,24</t>
+          <t>3,2; 8,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 14,55</t>
+          <t>3,5; 8,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,57</t>
+          <t>4,71; 9,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,44</t>
+          <t>8,05; 16,32</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,53</t>
+          <t>6,51; 14,21</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 6,93</t>
+          <t>11,99; 22,34</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,1</t>
+          <t>3,86; 7,64</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 4,84</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 5,82</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>3,68; 6,85</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>6,53; 12,01</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>5,18; 9,99</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>8,05; 14,26</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>8,3%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9,65%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>6,33%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>7,65%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>8,78%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>7,91%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,03%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>8,82%</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15,58%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
         <is>
           <t>14,23%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13,92%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>4,4%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>6,57%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>6,13%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>11,12%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6,22%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>11,95%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>11,11%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>11,72%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,55</t>
+          <t>1,0; 4,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 12,28</t>
+          <t>2,54; 13,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,88</t>
+          <t>1,69; 5,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,48</t>
+          <t>1,65; 5,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 15,85</t>
+          <t>4,22; 17,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 9,22</t>
+          <t>4,43; 16,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 10,9</t>
+          <t>6,45; 14,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,38; 12,0</t>
+          <t>4,1; 9,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 11,81</t>
+          <t>5,12; 11,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,12; 18,95</t>
+          <t>6,48; 12,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,99</t>
+          <t>6,17; 11,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 9,56</t>
+          <t>11,82; 19,96</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 8,06</t>
+          <t>10,05; 19,64</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,05</t>
+          <t>10,09; 19,41</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>8,03; 15,24</t>
+          <t>3,09; 6,33</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>4,67; 10,42</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 8,25</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 7,87</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>9,22; 16,77</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>8,42; 15,48</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>8,75; 14,47</t>
         </is>
       </c>
     </row>
@@ -1360,77 +1649,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>11,13%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13,98%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>4,91%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,16%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,74%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>6,78%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16,17%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>18,53%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>21,66%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>3,21%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>5,49%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>6,87%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>8,22%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>11,55%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
         <is>
           <t>14,99%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>17,88%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,67</t>
+          <t>0,39; 4,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,62</t>
+          <t>1,1; 6,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 14,15</t>
+          <t>4,02; 13,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,18; 8,86</t>
+          <t>3,24; 9,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 17,28</t>
+          <t>3,87; 11,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 8,14</t>
+          <t>7,1; 17,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,23; 13,06</t>
+          <t>9,46; 20,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,1; 10,2</t>
+          <t>2,75; 8,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,74; 15,59</t>
+          <t>4,84; 12,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,67; 23,77</t>
+          <t>4,02; 10,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 5,1</t>
+          <t>7,72; 15,49</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 8,12</t>
+          <t>11,11; 22,49</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 10,17</t>
+          <t>13,34; 23,47</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,01; 10,87</t>
+          <t>16,88; 28,05</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>11,45; 18,85</t>
+          <t>1,84; 5,3</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3,67; 8,14</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>5,0; 11,0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>6,14; 10,96</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>8,53; 14,91</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>11,86; 18,96</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>13,84; 21,65</t>
         </is>
       </c>
     </row>
@@ -1535,72 +1884,102 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11,25%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>8,81%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,76%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>11,68%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
+          <t>12,07%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>12,87%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18,95%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
           <t>13,16%</t>
         </is>
       </c>
-      <c r="M14" s="2" t="inlineStr">
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>23,98%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>6,24%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>6,9%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>8,31%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>9,46%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>7,3%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
         <is>
           <t>9,63%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>18,57%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,14; 5,57</t>
+          <t>1,2; 6,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 8,74</t>
+          <t>2,06; 8,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,78; 7,5</t>
+          <t>2,01; 8,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 16,22</t>
+          <t>3,13; 14,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,03; 9,35</t>
+          <t>2,76; 12,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,99; 12,52</t>
+          <t>2,14; 9,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,31; 14,19</t>
+          <t>6,42; 18,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,13; 15,92</t>
+          <t>6,06; 12,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,5; 16,62</t>
+          <t>5,86; 16,99</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,12; 20,86</t>
+          <t>8,84; 17,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,72</t>
+          <t>8,57; 19,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,57; 10,13</t>
+          <t>13,22; 26,38</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>6,21; 11,66</t>
+          <t>7,5; 19,98</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>6,63; 13,93</t>
+          <t>17,98; 32,01</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>6,13; 13,75</t>
+          <t>4,44; 8,72</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>4,69; 11,43</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>6,16; 11,38</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 14,74</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 18,1</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>6,27; 14,71</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>14,85; 23,46</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>6,18%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>6,22%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>6,81%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>8,34%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9,0%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>14,74%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>12,95%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>4,27%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>4,67%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>6,07%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>6,3%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>4,88%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>10,48%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>9,57%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>12,97%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,22</t>
+          <t>1,49; 3,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,75</t>
+          <t>1,69; 3,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,79; 4,93</t>
+          <t>2,68; 4,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,12</t>
+          <t>2,8; 5,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,31</t>
+          <t>4,49; 8,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,53</t>
+          <t>4,65; 8,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,56; 8,48</t>
+          <t>6,37; 9,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,0; 9,68</t>
+          <t>5,09; 7,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,5; 10,52</t>
+          <t>5,81; 8,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,98; 15,58</t>
+          <t>7,01; 9,94</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,02</t>
+          <t>7,63; 10,88</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 5,76</t>
+          <t>12,7; 17,02</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,18; 6,99</t>
+          <t>10,83; 15,32</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>5,46; 7,48</t>
+          <t>15,66; 20,37</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>8,35; 11,23</t>
+          <t>3,58; 5,06</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 5,97</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>5,29; 7,05</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>5,46; 7,44</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>9,11; 12,19</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 10,94</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>11,54; 14,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con mareos con bastante o mucha frecuencia (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7040</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6656</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14764</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14395</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2315</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2772</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23332</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>25056</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>34499</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21366</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>47658</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5023</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5844</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>30372</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>28942</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>41155</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>36130</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>62052</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>7338</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>8616</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24411</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19464</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24233</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3477; 41245</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3670; 37580</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>740; 6703</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1224; 5379</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10569; 41407</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11414; 51447</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20286; 57091</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9587; 41819</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>28178; 73763</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2739; 8150</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3701; 8906</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>16231; 50942</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>14692; 57497</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>24114; 65953</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>17196; 63958</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>37206; 97834</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>4241; 11861</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>5575; 12646</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7830</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3632</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27141</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13758</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>23245</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15589</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30731</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>51007</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>49291</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>76946</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4061</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6400</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>23419</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>34363</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>78148</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>63049</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>100191</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>5327</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>7388</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2405; 20523</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17455</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13497; 49136</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5035; 31465</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8310; 54779</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>408; 3530</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3440</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6268; 33191</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14278; 55885</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>33681; 77279</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>29833; 72509</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>50964; 109724</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2167; 6617</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3885; 8885</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>10269; 43753</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>19022; 59343</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>55542; 111069</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>42001; 91754</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>66059; 144073</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>3119; 8924</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>4812; 10755</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24172</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5332</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15690</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19357</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>43774</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2980</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3405</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>52170</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>37250</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>40074</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>50814</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>82368</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5344</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>9229</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>76342</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>42581</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>55764</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>70170</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>126142</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>8324</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>12634</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12313; 42559</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21102</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6391; 30980</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9360; 33908</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25381; 70340</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1468; 5560</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1726; 5819</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>34567; 78071</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22785; 62346</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25148; 57979</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>33542; 70858</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>57787; 117057</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3508; 7660</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6579; 12255</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>52933; 104670</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>26144; 67700</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>37651; 81212</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>51265; 95347</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>91194; 167747</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>5914; 11401</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>9285; 16436</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14584</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>36327</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21423</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>53899</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4809</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5499</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>44510</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>54205</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>60336</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>58075</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>103075</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7460</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>7417</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>59093</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>90532</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>81758</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>78575</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>156974</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>12270</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>12916</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6360; 30142</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>16440; 88654</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10904; 35022</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10433; 36344</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>27497; 110888</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2571; 9337</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3673; 8503</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>28833; 63436</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>35071; 76879</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>43301; 83138</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>40632; 76819</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>78149; 132043</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5267; 10296</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>5376; 10338</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>41495; 84919</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>62189; 138860</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>61219; 108459</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>58051; 101564</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>121073; 220294</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>9300; 17092</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>9645; 15946</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7903</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14598</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>36981</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>27302</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>32647</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4951</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6309</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24646</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>41615</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>33692</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>56027</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>83599</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>8997</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>10047</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>32550</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>56213</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>70673</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>83329</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>116246</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>13948</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>16356</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2002; 25296</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5428; 30462</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>20179; 70039</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15978; 44685</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>18922; 55194</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3160; 7763</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4267; 9125</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13831; 41882</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>24631; 65078</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>19978; 52393</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>39753; 79808</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>57434; 116248</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>6474; 11393</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>7831; 13012</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>18702; 53762</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>36891; 81794</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>49909; 109862</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>61923; 110571</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>85805; 150013</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>11034; 17638</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>12664; 19807</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>15335</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>24123</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>21131</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>34882</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>37918</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2277</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5155</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>64440</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>67809</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>83232</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>89151</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>138196</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>8331</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>14907</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>79775</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>91931</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>104363</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>124033</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>176114</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>10608</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>20062</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6544; 33787</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>11170; 47329</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>10478; 42481</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>16651; 78854</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>15612; 68793</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1002; 4600</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2941; 8321</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>44291; 93291</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>42032; 121928</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>60959; 117533</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>59334; 137236</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>96447; 192413</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>4751; 12652</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>11177; 19900</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>56772; 111458</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>59155; 144049</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>74621; 137760</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>83546; 180610</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>125506; 234557</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>6904; 16205</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>16042; 25339</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>76864</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>87897</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>129021</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>130563</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>205878</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>18598</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>24129</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>224686</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>256666</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>302840</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>324724</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>531842</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>39216</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>53843</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>301551</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>344563</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>431861</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>455287</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>737719</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>57814</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>77972</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>51494; 105744</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>58163; 137565</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>92098; 168895</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>96335; 179554</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>154215; 277915</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>13993; 24308</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>19092; 29386</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>184054; 272256</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>209678; 323720</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>252023; 357491</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>275538; 392876</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>457971; 614139</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>32807; 46399</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>47170; 61373</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>252682; 357624</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>280890; 421249</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>372144; 495782</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>385097; 525073</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>641137; 857908</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>49671; 66044</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>69389; 87082</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>